--- a/DS_Mystery/Asia stock management/data/Загрузка продажи АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/data/Загрузка продажи АЛМ.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14289" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14481" uniqueCount="1151">
   <si>
     <t>ДАТА</t>
   </si>
@@ -3440,9 +3440,6 @@
     <t>19.06.2023 г.</t>
   </si>
   <si>
-    <t>ИП GRAND FAST FOOD</t>
-  </si>
-  <si>
     <t>102559</t>
   </si>
   <si>
@@ -3459,6 +3456,30 @@
   </si>
   <si>
     <t>253930</t>
+  </si>
+  <si>
+    <t>20.06.2023 г.</t>
+  </si>
+  <si>
+    <t>101902</t>
+  </si>
+  <si>
+    <t>ТОО "БытхимснабServis"</t>
+  </si>
+  <si>
+    <t>110722</t>
+  </si>
+  <si>
+    <t>111246</t>
+  </si>
+  <si>
+    <t>112087</t>
+  </si>
+  <si>
+    <t>ТОО "Din Tex"</t>
+  </si>
+  <si>
+    <t>192301</t>
   </si>
 </sst>
 </file>
@@ -3777,10 +3798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3572"/>
+  <dimension ref="A1:E3620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:E3620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63820,10 +63841,10 @@
         <v>194</v>
       </c>
       <c r="C3532" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3532" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3532">
         <v>200</v>
@@ -63851,7 +63872,7 @@
         <v>1136</v>
       </c>
       <c r="B3534" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C3534" t="s">
         <v>4</v>
@@ -63902,7 +63923,7 @@
         <v>1136</v>
       </c>
       <c r="B3537" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C3537" t="s">
         <v>4</v>
@@ -64038,7 +64059,7 @@
         <v>1136</v>
       </c>
       <c r="B3545" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C3545" t="s">
         <v>4</v>
@@ -64109,10 +64130,10 @@
         <v>84</v>
       </c>
       <c r="C3549" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3549" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3549">
         <v>300</v>
@@ -64157,7 +64178,7 @@
         <v>1136</v>
       </c>
       <c r="B3552" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C3552" t="s">
         <v>4</v>
@@ -64174,13 +64195,13 @@
         <v>1136</v>
       </c>
       <c r="B3553" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C3553" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3553" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3553">
         <v>2</v>
@@ -64194,10 +64215,10 @@
         <v>344</v>
       </c>
       <c r="C3554" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3554" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3554">
         <v>3</v>
@@ -64211,10 +64232,10 @@
         <v>208</v>
       </c>
       <c r="C3555" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3555" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3555">
         <v>2000</v>
@@ -64262,10 +64283,10 @@
         <v>885</v>
       </c>
       <c r="C3558" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3558" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3558">
         <v>200</v>
@@ -64296,10 +64317,10 @@
         <v>1098</v>
       </c>
       <c r="C3560" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3560" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3560">
         <v>300</v>
@@ -64446,7 +64467,7 @@
         <v>1136</v>
       </c>
       <c r="B3569" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C3569" t="s">
         <v>4</v>
@@ -64500,13 +64521,829 @@
         <v>496</v>
       </c>
       <c r="C3572" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="D3572" t="s">
-        <v>1137</v>
+        <v>314</v>
       </c>
       <c r="E3572">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3573" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3573" t="s">
+        <v>697</v>
+      </c>
+      <c r="C3573" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3573" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3574" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3574" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3574" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3574" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3575" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3575" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3575" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3575" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3576" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3576" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3576" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3576" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3576">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3577" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3577" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3577" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3577" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3577">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3578" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3578" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C3578" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3578" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3579" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3579" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3579" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3579" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3579">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3580" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3580" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3580" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3580" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3580">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3581" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3581" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3581" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3581" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3581">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3582" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3582" t="s">
+        <v>746</v>
+      </c>
+      <c r="C3582" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3582" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E3582">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3583" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3583" t="s">
+        <v>664</v>
+      </c>
+      <c r="C3583" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3583" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3583">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3584" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3584" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3584" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3584" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3584">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3585" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3585" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3585" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3585" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3586" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3586" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3586" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3586" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3586">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3587" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3587" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3587" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3587" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3587">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3588" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3588" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3588" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3588" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3588">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3589" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3589" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3589" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3589" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3589">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3590" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3590" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3590" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3590" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3590">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3591" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3591" t="s">
+        <v>770</v>
+      </c>
+      <c r="C3591" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3591" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3591">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3592" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3592" t="s">
+        <v>866</v>
+      </c>
+      <c r="C3592" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3592" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3592">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3593" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3593" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3593" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3593" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3594" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3594" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3594" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3594" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3595" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3595" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C3595" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3595" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3596" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3596" t="s">
+        <v>754</v>
+      </c>
+      <c r="C3596" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3596" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3596">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3597" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3597" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C3597" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3597" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3597">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3598" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3598" t="s">
+        <v>614</v>
+      </c>
+      <c r="C3598" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3598" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3598">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3599" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3599" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3599" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3599" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3599">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3600" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3600" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3600" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3600" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3600">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3601" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3601" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3601" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3601" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3601">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3602" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3602" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3602" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3602" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3602">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3603" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3603" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C3603" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3603" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E3603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3604" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3604" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C3604" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3604" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E3604">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3605" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3605" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C3605" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3605" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3605">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3606" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3606" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3606" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3606" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3606">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3607" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3607" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3607" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3607" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3607">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3608" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3608" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3608" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3608" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3608">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3609" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3609" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3609" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3609" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3609">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3610" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3610" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3610" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3610" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3610">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3611" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3611" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3611" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3611" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3611">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3612" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3612" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3612" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3612" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3612">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3613" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3613" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3613" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3613" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3613">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3614" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3614" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3614" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3614" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3615" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3615" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3615" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3615" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3616" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3616" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C3616" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3616" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3617" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3617" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3617" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3617" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3617">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3618" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3618" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3618" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3618" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3618">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3619" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3619" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C3619" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3619" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3619">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3620" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3620" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3620" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3620" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3620">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DS_Mystery/Asia stock management/data/Загрузка продажи АЛМ.xlsx
+++ b/DS_Mystery/Asia stock management/data/Загрузка продажи АЛМ.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14481" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14693" uniqueCount="1156">
   <si>
     <t>ДАТА</t>
   </si>
@@ -3480,6 +3480,21 @@
   </si>
   <si>
     <t>192301</t>
+  </si>
+  <si>
+    <t>ТОО "BeneFood"</t>
+  </si>
+  <si>
+    <t>ЧЛ Бахабадинова М.С.</t>
+  </si>
+  <si>
+    <t>21.06.2023 г.</t>
+  </si>
+  <si>
+    <t>103600</t>
+  </si>
+  <si>
+    <t>113136</t>
   </si>
 </sst>
 </file>
@@ -3798,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3620"/>
+  <dimension ref="A1:E3673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3620"/>
+      <selection sqref="A1:E3673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5633,7 +5648,7 @@
         <v>391</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D108" t="s">
         <v>400</v>
@@ -16411,7 +16426,7 @@
         <v>399</v>
       </c>
       <c r="C742" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D742" t="s">
         <v>400</v>
@@ -24299,7 +24314,7 @@
         <v>782</v>
       </c>
       <c r="C1206" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1206" t="s">
         <v>400</v>
@@ -24792,7 +24807,7 @@
         <v>391</v>
       </c>
       <c r="C1235" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1235" t="s">
         <v>400</v>
@@ -37474,7 +37489,7 @@
         <v>782</v>
       </c>
       <c r="C1981" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1981" t="s">
         <v>400</v>
@@ -38018,7 +38033,7 @@
         <v>391</v>
       </c>
       <c r="C2013" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2013" t="s">
         <v>400</v>
@@ -42625,7 +42640,7 @@
         <v>961</v>
       </c>
       <c r="C2284" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2284" t="s">
         <v>400</v>
@@ -42642,7 +42657,7 @@
         <v>962</v>
       </c>
       <c r="C2285" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2285" t="s">
         <v>400</v>
@@ -50870,7 +50885,7 @@
         <v>961</v>
       </c>
       <c r="C2769" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D2769" t="s">
         <v>400</v>
@@ -64640,7 +64655,7 @@
         <v>782</v>
       </c>
       <c r="C3579" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3579" t="s">
         <v>400</v>
@@ -64847,10 +64862,10 @@
         <v>254</v>
       </c>
       <c r="D3591" t="s">
-        <v>358</v>
+        <v>1151</v>
       </c>
       <c r="E3591">
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3592" spans="1:5" x14ac:dyDescent="0.3">
@@ -64858,16 +64873,16 @@
         <v>1143</v>
       </c>
       <c r="B3592" t="s">
-        <v>866</v>
+        <v>770</v>
       </c>
       <c r="C3592" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="D3592" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="E3592">
-        <v>0.8</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3593" spans="1:5" x14ac:dyDescent="0.3">
@@ -64875,16 +64890,16 @@
         <v>1143</v>
       </c>
       <c r="B3593" t="s">
-        <v>458</v>
+        <v>866</v>
       </c>
       <c r="C3593" t="s">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="D3593" t="s">
-        <v>441</v>
+        <v>331</v>
       </c>
       <c r="E3593">
-        <v>2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3594" spans="1:5" x14ac:dyDescent="0.3">
@@ -64892,7 +64907,7 @@
         <v>1143</v>
       </c>
       <c r="B3594" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C3594" t="s">
         <v>254</v>
@@ -64909,7 +64924,7 @@
         <v>1143</v>
       </c>
       <c r="B3595" t="s">
-        <v>1146</v>
+        <v>461</v>
       </c>
       <c r="C3595" t="s">
         <v>254</v>
@@ -64918,7 +64933,7 @@
         <v>441</v>
       </c>
       <c r="E3595">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3596" spans="1:5" x14ac:dyDescent="0.3">
@@ -64926,7 +64941,7 @@
         <v>1143</v>
       </c>
       <c r="B3596" t="s">
-        <v>754</v>
+        <v>1146</v>
       </c>
       <c r="C3596" t="s">
         <v>254</v>
@@ -64935,7 +64950,7 @@
         <v>441</v>
       </c>
       <c r="E3596">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3597" spans="1:5" x14ac:dyDescent="0.3">
@@ -64943,16 +64958,16 @@
         <v>1143</v>
       </c>
       <c r="B3597" t="s">
-        <v>1147</v>
+        <v>754</v>
       </c>
       <c r="C3597" t="s">
         <v>254</v>
       </c>
       <c r="D3597" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="E3597">
-        <v>0.48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3598" spans="1:5" x14ac:dyDescent="0.3">
@@ -64960,16 +64975,16 @@
         <v>1143</v>
       </c>
       <c r="B3598" t="s">
-        <v>614</v>
+        <v>1147</v>
       </c>
       <c r="C3598" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="D3598" t="s">
-        <v>479</v>
+        <v>400</v>
       </c>
       <c r="E3598">
-        <v>500</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3599" spans="1:5" x14ac:dyDescent="0.3">
@@ -64977,16 +64992,16 @@
         <v>1143</v>
       </c>
       <c r="B3599" t="s">
-        <v>233</v>
+        <v>614</v>
       </c>
       <c r="C3599" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="D3599" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="E3599">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3600" spans="1:5" x14ac:dyDescent="0.3">
@@ -65000,10 +65015,10 @@
         <v>252</v>
       </c>
       <c r="D3600" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E3600">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3601" spans="1:5" x14ac:dyDescent="0.3">
@@ -65011,16 +65026,16 @@
         <v>1143</v>
       </c>
       <c r="B3601" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3601" t="s">
         <v>252</v>
       </c>
       <c r="D3601" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E3601">
-        <v>300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3602" spans="1:5" x14ac:dyDescent="0.3">
@@ -65034,10 +65049,10 @@
         <v>252</v>
       </c>
       <c r="D3602" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E3602">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3603" spans="1:5" x14ac:dyDescent="0.3">
@@ -65045,16 +65060,16 @@
         <v>1143</v>
       </c>
       <c r="B3603" t="s">
-        <v>1148</v>
+        <v>234</v>
       </c>
       <c r="C3603" t="s">
         <v>252</v>
       </c>
       <c r="D3603" t="s">
-        <v>1149</v>
+        <v>378</v>
       </c>
       <c r="E3603">
-        <v>1</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3604" spans="1:5" x14ac:dyDescent="0.3">
@@ -65062,16 +65077,16 @@
         <v>1143</v>
       </c>
       <c r="B3604" t="s">
-        <v>1043</v>
+        <v>1148</v>
       </c>
       <c r="C3604" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="D3604" t="s">
-        <v>1107</v>
+        <v>1149</v>
       </c>
       <c r="E3604">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3605" spans="1:5" x14ac:dyDescent="0.3">
@@ -65079,16 +65094,16 @@
         <v>1143</v>
       </c>
       <c r="B3605" t="s">
-        <v>1099</v>
+        <v>1043</v>
       </c>
       <c r="C3605" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="D3605" t="s">
-        <v>364</v>
+        <v>1107</v>
       </c>
       <c r="E3605">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3606" spans="1:5" x14ac:dyDescent="0.3">
@@ -65096,16 +65111,16 @@
         <v>1143</v>
       </c>
       <c r="B3606" t="s">
-        <v>89</v>
+        <v>1099</v>
       </c>
       <c r="C3606" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="D3606" t="s">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="E3606">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3607" spans="1:5" x14ac:dyDescent="0.3">
@@ -65113,7 +65128,7 @@
         <v>1143</v>
       </c>
       <c r="B3607" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C3607" t="s">
         <v>4</v>
@@ -65130,7 +65145,7 @@
         <v>1143</v>
       </c>
       <c r="B3608" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C3608" t="s">
         <v>4</v>
@@ -65139,7 +65154,7 @@
         <v>479</v>
       </c>
       <c r="E3608">
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3609" spans="1:5" x14ac:dyDescent="0.3">
@@ -65147,7 +65162,7 @@
         <v>1143</v>
       </c>
       <c r="B3609" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C3609" t="s">
         <v>4</v>
@@ -65156,7 +65171,7 @@
         <v>479</v>
       </c>
       <c r="E3609">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3610" spans="1:5" x14ac:dyDescent="0.3">
@@ -65164,16 +65179,16 @@
         <v>1143</v>
       </c>
       <c r="B3610" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="C3610" t="s">
         <v>4</v>
       </c>
       <c r="D3610" t="s">
-        <v>389</v>
+        <v>479</v>
       </c>
       <c r="E3610">
-        <v>4498</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3611" spans="1:5" x14ac:dyDescent="0.3">
@@ -65181,13 +65196,13 @@
         <v>1143</v>
       </c>
       <c r="B3611" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="C3611" t="s">
         <v>4</v>
       </c>
       <c r="D3611" t="s">
-        <v>389</v>
+        <v>1152</v>
       </c>
       <c r="E3611">
         <v>4498</v>
@@ -65198,16 +65213,16 @@
         <v>1143</v>
       </c>
       <c r="B3612" t="s">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="C3612" t="s">
-        <v>254</v>
+        <v>4</v>
       </c>
       <c r="D3612" t="s">
-        <v>441</v>
+        <v>1152</v>
       </c>
       <c r="E3612">
-        <v>12</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="3613" spans="1:5" x14ac:dyDescent="0.3">
@@ -65215,7 +65230,7 @@
         <v>1143</v>
       </c>
       <c r="B3613" t="s">
-        <v>1029</v>
+        <v>401</v>
       </c>
       <c r="C3613" t="s">
         <v>254</v>
@@ -65224,7 +65239,7 @@
         <v>441</v>
       </c>
       <c r="E3613">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3614" spans="1:5" x14ac:dyDescent="0.3">
@@ -65232,7 +65247,7 @@
         <v>1143</v>
       </c>
       <c r="B3614" t="s">
-        <v>175</v>
+        <v>1029</v>
       </c>
       <c r="C3614" t="s">
         <v>254</v>
@@ -65241,7 +65256,7 @@
         <v>441</v>
       </c>
       <c r="E3614">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3615" spans="1:5" x14ac:dyDescent="0.3">
@@ -65249,7 +65264,7 @@
         <v>1143</v>
       </c>
       <c r="B3615" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C3615" t="s">
         <v>254</v>
@@ -65266,7 +65281,7 @@
         <v>1143</v>
       </c>
       <c r="B3616" t="s">
-        <v>1031</v>
+        <v>166</v>
       </c>
       <c r="C3616" t="s">
         <v>254</v>
@@ -65275,7 +65290,7 @@
         <v>441</v>
       </c>
       <c r="E3616">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3617" spans="1:5" x14ac:dyDescent="0.3">
@@ -65283,16 +65298,16 @@
         <v>1143</v>
       </c>
       <c r="B3617" t="s">
-        <v>354</v>
+        <v>1031</v>
       </c>
       <c r="C3617" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D3617" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="E3617">
-        <v>20000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3618" spans="1:5" x14ac:dyDescent="0.3">
@@ -65306,10 +65321,10 @@
         <v>252</v>
       </c>
       <c r="D3618" t="s">
-        <v>493</v>
+        <v>355</v>
       </c>
       <c r="E3618">
-        <v>2950</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3619" spans="1:5" x14ac:dyDescent="0.3">
@@ -65317,16 +65332,16 @@
         <v>1143</v>
       </c>
       <c r="B3619" t="s">
-        <v>1150</v>
+        <v>354</v>
       </c>
       <c r="C3619" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3619" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="E3619">
-        <v>12</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="3620" spans="1:5" x14ac:dyDescent="0.3">
@@ -65334,16 +65349,917 @@
         <v>1143</v>
       </c>
       <c r="B3620" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C3620" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3620" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3620">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3621" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3621" t="s">
         <v>359</v>
       </c>
-      <c r="C3620" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3620" t="s">
+      <c r="C3621" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3621" t="s">
         <v>378</v>
       </c>
-      <c r="E3620">
+      <c r="E3621">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3622" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3622" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3622" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3622" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3623" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3623" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3623" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3623" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3623">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3624" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3624" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3624" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3624" t="s">
+        <v>695</v>
+      </c>
+      <c r="E3624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3625" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3625" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3625" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3625" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3625">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3626" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3626" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3626" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3626" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3626">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3627" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3627" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3627" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3627" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3627">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3628" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3628" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3628" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3628" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3628">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3629" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3629" t="s">
+        <v>700</v>
+      </c>
+      <c r="C3629" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3629" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3629">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3630" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3630" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3630" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3630" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3630">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3631" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3631" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3631" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3631" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3631">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3632" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3632" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C3632" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3632" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3632">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3633" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3633" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3633" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3633" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3633">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3634" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3634" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3634" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3634" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3634">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3635" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3635" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3635" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3635" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3635">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3636" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3636" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3636" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3636" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3636">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3637" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3637" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3637" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3637" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3637">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3638" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3638" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3638" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3638">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3639" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3639" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3639" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3639" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3639">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3640" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3640" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3640" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3640" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3640">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3641" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3641" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3641" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3641" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3641">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3642" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3642" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3642" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3642" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3642">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3643" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3643" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3643" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3643" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3643">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3644" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3644" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3644" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3644" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3644">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3645" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3645" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3645" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3645" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3645">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3646" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3646" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3646" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3646" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3646">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3647" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3647" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3647" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3647" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3647">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3648" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3648" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3648" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3648" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3648">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3649" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3649" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3649" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3649" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3649">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3650" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3650" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C3650" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3650" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E3650">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3651" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3651" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3651" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3651" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3651">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3652" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3652" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3652" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3652" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3653" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3653" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3653" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3653" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3653">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3654" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3654" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3654" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3654" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3654">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3655" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3655" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C3655" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3655" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3656" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3656" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C3656" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3656" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3656">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3657" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3657" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C3657" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3657" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3657">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3658" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3658" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C3658" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3658" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3658">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3659" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3659" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C3659" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3659" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3659">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3660" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3660" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C3660" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3660" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3660">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3661" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3661" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C3661" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3661" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3661">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3662" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3662" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C3662" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3662" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3662">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3663" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3663" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C3663" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3663" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3663">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3664" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3664" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C3664" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3664" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3664">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3665" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3665" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3665" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3665" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3665">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3666" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3666" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3666" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3666" t="s">
+        <v>781</v>
+      </c>
+      <c r="E3666">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3667" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3667" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3667" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3667" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3667">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3668" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3668" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3668" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3668" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3668">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3669" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3669" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3669" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3669" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3669">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3670" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3670" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3670" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3670" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3670">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3671" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3671" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3671" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3671" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3671">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3672" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3672" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C3672" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3672" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E3672">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3673" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3673" t="s">
+        <v>944</v>
+      </c>
+      <c r="C3673" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3673" t="s">
+        <v>861</v>
+      </c>
+      <c r="E3673">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
